--- a/RightHemis_val_FULL_modality_Only_Part_2.xlsx
+++ b/RightHemis_val_FULL_modality_Only_Part_2.xlsx
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6666666865348816</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -613,13 +613,13 @@
         <v>0.8571428060531616</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5</v>
+        <v>0.8571428060531616</v>
       </c>
       <c r="D9" t="n">
         <v>0.928571343421936</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5</v>
+        <v>0.928571343421936</v>
       </c>
       <c r="F9" t="n">
         <v>0.8571428060531616</v>
@@ -750,7 +750,7 @@
         <v>520</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5</v>
+        <v>0.8571428060531616</v>
       </c>
       <c r="C16" t="n">
         <v>0.7857142686843872</v>
@@ -933,7 +933,7 @@
         <v>0.7499999403953552</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.8124999403953552</v>
       </c>
       <c r="D25" t="n">
         <v>0.9374999403953552</v>
@@ -962,7 +962,7 @@
         <v>0.8333332538604736</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5</v>
+        <v>0.7222221493721008</v>
       </c>
     </row>
     <row r="27">
@@ -982,7 +982,7 @@
         <v>0.8571428060531616</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6428570747375488</v>
+        <v>0.714285671710968</v>
       </c>
     </row>
     <row r="28">
@@ -1002,7 +1002,7 @@
         <v>0.8124999403953552</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.8124999403953552</v>
       </c>
     </row>
     <row r="29">
@@ -1022,7 +1022,7 @@
         <v>0.6874999403953552</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.9374999403953552</v>
       </c>
     </row>
     <row r="30">
@@ -1036,13 +1036,13 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5</v>
+        <v>0.9374999403953552</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.6874999403953552</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5</v>
+        <v>0.8749999403953552</v>
       </c>
     </row>
     <row r="31">
@@ -1050,10 +1050,10 @@
         <v>541</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5</v>
+        <v>0.7857142686843872</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5</v>
+        <v>0.8571428060531616</v>
       </c>
       <c r="D31" t="n">
         <v>0.928571343421936</v>
@@ -1070,19 +1070,19 @@
         <v>542</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5714285373687744</v>
+        <v>0.6428570747375488</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4999999403953552</v>
+        <v>0.7857142686843872</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4999999403953552</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5714285373687744</v>
+        <v>0.7857142686843872</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5</v>
+        <v>0.7857142686843872</v>
       </c>
     </row>
     <row r="33">
@@ -1136,7 +1136,7 @@
         <v>0.8124999403953552</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.8749999403953552</v>
       </c>
       <c r="E35" t="n">
         <v>0.9999999403953552</v>
@@ -1150,7 +1150,7 @@
         <v>548</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="C36" t="n">
         <v>0.8333332538604736</v>
@@ -1196,7 +1196,7 @@
         <v>0.8571428060531616</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6428570747375488</v>
+        <v>0.928571343421936</v>
       </c>
       <c r="E38" t="n">
         <v>0.928571343421936</v>
@@ -1219,7 +1219,7 @@
         <v>0.6428570747375488</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5714285373687744</v>
+        <v>0.8571428060531616</v>
       </c>
       <c r="F39" t="n">
         <v>0.714285671710968</v>
@@ -1230,16 +1230,16 @@
         <v>553</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5</v>
+        <v>0.928571343421936</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5</v>
+        <v>0.928571343421936</v>
       </c>
       <c r="D40" t="n">
         <v>0.7857142686843872</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="F40" t="n">
         <v>0.7857142686843872</v>
@@ -1250,13 +1250,13 @@
         <v>554</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5714285373687744</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="C41" t="n">
         <v>0.928571343421936</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5714285373687744</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="E41" t="n">
         <v>0.714285671710968</v>
@@ -1273,13 +1273,13 @@
         <v>0.6874999403953552</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5</v>
+        <v>0.6249999403953552</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5</v>
+        <v>0.6874999403953552</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.9374999403953552</v>
       </c>
       <c r="F42" t="n">
         <v>0.6874999403953552</v>
@@ -1370,10 +1370,10 @@
         <v>560</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.6249999403953552</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="D47" t="n">
         <v>0.9999999403953552</v>
@@ -1490,16 +1490,16 @@
         <v>566</v>
       </c>
       <c r="B53" t="n">
-        <v>0.555555522441864</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="D53" t="n">
-        <v>0.611111044883728</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="E53" t="n">
-        <v>0.555555522441864</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="F53" t="n">
         <v>0.7222221493721008</v>
@@ -1522,7 +1522,7 @@
         <v>0.9374999403953552</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5</v>
+        <v>0.8124999403953552</v>
       </c>
     </row>
     <row r="55">
@@ -1530,7 +1530,7 @@
         <v>568</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.9374999403953552</v>
       </c>
       <c r="C55" t="n">
         <v>0.9999999403953552</v>
@@ -1610,7 +1610,7 @@
         <v>572</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="C59" t="n">
         <v>0.8888888359069824</v>
@@ -1639,7 +1639,7 @@
         <v>0.7499999403953552</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.9374999403953552</v>
       </c>
       <c r="F60" t="n">
         <v>0.6874999403953552</v>
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4444444477558136</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5555555820465088</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>0.8888888955116272</v>
@@ -1893,7 +1893,7 @@
         <v>0.9374999403953552</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.7499999403953552</v>
       </c>
       <c r="D73" t="n">
         <v>0.6874999403953552</v>
@@ -1902,7 +1902,7 @@
         <v>0.6874999403953552</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5</v>
+        <v>0.9374999403953552</v>
       </c>
     </row>
     <row r="74">
@@ -1930,7 +1930,7 @@
         <v>593</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6666666865348816</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1950,7 +1950,7 @@
         <v>594</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5</v>
+        <v>0.8124999403953552</v>
       </c>
       <c r="C76" t="n">
         <v>0.9999999403953552</v>
@@ -1962,7 +1962,7 @@
         <v>0.8124999403953552</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5</v>
+        <v>0.8749999403953552</v>
       </c>
     </row>
     <row r="77">
@@ -1979,7 +1979,7 @@
         <v>0.8124999403953552</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.8749999403953552</v>
       </c>
       <c r="F77" t="n">
         <v>0.8749999403953552</v>
@@ -1996,10 +1996,10 @@
         <v>0.8749999403953552</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5</v>
+        <v>0.6874999403953552</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.9374999403953552</v>
       </c>
       <c r="F78" t="n">
         <v>0.9374999403953552</v>
@@ -2030,7 +2030,7 @@
         <v>599</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -2059,7 +2059,7 @@
         <v>0.7777777314186096</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4999999403953552</v>
+        <v>0.6666666269302368</v>
       </c>
       <c r="F81" t="n">
         <v>0.7777777314186096</v>
@@ -2070,16 +2070,16 @@
         <v>601</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="C82" t="n">
         <v>0.7222221493721008</v>
       </c>
       <c r="D82" t="n">
-        <v>0.611111044883728</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="F82" t="n">
         <v>0.6666666269302368</v>
@@ -2102,7 +2102,7 @@
         <v>0.7857142686843872</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5714285373687744</v>
+        <v>0.8571428060531616</v>
       </c>
     </row>
     <row r="84">
@@ -2116,13 +2116,13 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.8749999403953552</v>
       </c>
       <c r="E84" t="n">
         <v>0.9999999403953552</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.7499999403953552</v>
       </c>
     </row>
     <row r="85">
@@ -2159,7 +2159,7 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="E86" t="n">
-        <v>0.611111044883728</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="F86" t="n">
         <v>0.9999999403953552</v>
@@ -2210,13 +2210,13 @@
         <v>608</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.8124999403953552</v>
       </c>
       <c r="C89" t="n">
         <v>0.7499999403953552</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5</v>
+        <v>0.8749999403953552</v>
       </c>
       <c r="E89" t="n">
         <v>0.7499999403953552</v>
@@ -2256,13 +2256,13 @@
         <v>0.8124999403953552</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5</v>
+        <v>0.6874999403953552</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5</v>
+        <v>0.6874999403953552</v>
       </c>
     </row>
     <row r="92">
@@ -2330,13 +2330,13 @@
         <v>615</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.7499999403953552</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.9374999403953552</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.6249999403953552</v>
       </c>
       <c r="E95" t="n">
         <v>0.8749999403953552</v>
@@ -2353,10 +2353,10 @@
         <v>0.7222221493721008</v>
       </c>
       <c r="C96" t="n">
-        <v>0.555555522441864</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="D96" t="n">
-        <v>0.555555522441864</v>
+        <v>0.6666666269302368</v>
       </c>
       <c r="E96" t="n">
         <v>0.8333332538604736</v>
@@ -2390,7 +2390,7 @@
         <v>618</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.7499999403953552</v>
       </c>
       <c r="C98" t="n">
         <v>0.8124999403953552</v>
@@ -2453,10 +2453,10 @@
         <v>0.7777777314186096</v>
       </c>
       <c r="C101" t="n">
-        <v>0.611111044883728</v>
+        <v>0.6666666269302368</v>
       </c>
       <c r="D101" t="n">
-        <v>0.611111044883728</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="E101" t="n">
         <v>0.9444444179534912</v>
@@ -2490,16 +2490,16 @@
         <v>623</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.7499999403953552</v>
       </c>
       <c r="C103" t="n">
         <v>0.9374999403953552</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.6874999403953552</v>
       </c>
       <c r="E103" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.7499999403953552</v>
       </c>
       <c r="F103" t="n">
         <v>0.8749999403953552</v>
@@ -2516,7 +2516,7 @@
         <v>0.8749999403953552</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.8124999403953552</v>
       </c>
       <c r="E104" t="n">
         <v>0.7499999403953552</v>
@@ -2570,7 +2570,7 @@
         <v>628</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.8749999403953552</v>
       </c>
       <c r="C107" t="n">
         <v>0.8749999403953552</v>
@@ -2599,10 +2599,10 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.8124999403953552</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.9999999403953552</v>
       </c>
     </row>
     <row r="109">
@@ -2619,7 +2619,7 @@
         <v>0.6874999403953552</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.8124999403953552</v>
       </c>
       <c r="F109" t="n">
         <v>0.8749999403953552</v>
@@ -2736,13 +2736,13 @@
         <v>0.699999988079071</v>
       </c>
       <c r="D115" t="n">
-        <v>0.300000011920929</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.4000000059604645</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -2776,10 +2776,10 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
@@ -2833,13 +2833,13 @@
         <v>0.6875</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5625</v>
+        <v>0.75</v>
       </c>
       <c r="D120" t="n">
         <v>0.75</v>
       </c>
       <c r="E120" t="n">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="F120" t="n">
         <v>0.875</v>
@@ -2916,7 +2916,7 @@
         <v>0.8571428060531616</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5</v>
+        <v>0.714285671710968</v>
       </c>
       <c r="E124" t="n">
         <v>0.928571343421936</v>
@@ -2933,13 +2933,13 @@
         <v>0.9285714626312256</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5</v>
+        <v>0.7857142686843872</v>
       </c>
       <c r="D125" t="n">
         <v>0.75</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5357142686843872</v>
+        <v>0.7857142686843872</v>
       </c>
       <c r="F125" t="n">
         <v>0.7857142686843872</v>
@@ -2950,7 +2950,7 @@
         <v>648</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5</v>
+        <v>0.6785714626312256</v>
       </c>
       <c r="C126" t="n">
         <v>0.7857142686843872</v>
@@ -3013,7 +3013,7 @@
         <v>0.7777777314186096</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="D129" t="n">
         <v>0.8333332538604736</v>
@@ -3033,7 +3033,7 @@
         <v>0.7222221493721008</v>
       </c>
       <c r="C130" t="n">
-        <v>0.611111044883728</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="D130" t="n">
         <v>0.7777777314186096</v>
@@ -3042,7 +3042,7 @@
         <v>0.7222221493721008</v>
       </c>
       <c r="F130" t="n">
-        <v>0.611111044883728</v>
+        <v>0.9444444179534912</v>
       </c>
     </row>
     <row r="131">
@@ -3359,7 +3359,7 @@
         <v>0.7222221493721008</v>
       </c>
       <c r="E146" t="n">
-        <v>0.555555522441864</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="F146" t="n">
         <v>0.9999999403953552</v>
@@ -3379,10 +3379,10 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="E147" t="n">
-        <v>0.611111044883728</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="F147" t="n">
-        <v>0.555555522441864</v>
+        <v>0.7777777314186096</v>
       </c>
     </row>
     <row r="148">
@@ -3396,7 +3396,7 @@
         <v>0.8749999403953552</v>
       </c>
       <c r="D148" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.7499999403953552</v>
       </c>
       <c r="E148" t="n">
         <v>0.9999999403953552</v>
@@ -3410,7 +3410,7 @@
         <v>674</v>
       </c>
       <c r="B149" t="n">
-        <v>0.611111044883728</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="C149" t="n">
         <v>0.9444444179534912</v>
@@ -3456,7 +3456,7 @@
         <v>0.8333332538604736</v>
       </c>
       <c r="D151" t="n">
-        <v>0.611111044883728</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="E151" t="n">
         <v>0.8333332538604736</v>
@@ -3473,7 +3473,7 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="C152" t="n">
-        <v>0.555555522441864</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="D152" t="n">
         <v>0.9999999403953552</v>
@@ -3733,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>0.6000000238418579</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -3930,7 +3930,7 @@
         <v>707</v>
       </c>
       <c r="B175" t="n">
-        <v>0.300000011920929</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -3953,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0.1000000014901161</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
         <v>0.800000011920929</v>
@@ -3979,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>0.2000000029802322</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
         <v>1</v>
@@ -4019,7 +4019,7 @@
         <v>0.7777777910232544</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4444444477558136</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
@@ -4033,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0.4444444477558136</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
         <v>0.7777777910232544</v>
@@ -4042,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.4444444477558136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -4050,7 +4050,7 @@
         <v>713</v>
       </c>
       <c r="B181" t="n">
-        <v>0.611111044883728</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="C181" t="n">
         <v>0.9444444179534912</v>
@@ -4079,7 +4079,7 @@
         <v>0.8888888359069824</v>
       </c>
       <c r="E182" t="n">
-        <v>0.5</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="F182" t="n">
         <v>0.7222221493721008</v>
@@ -4119,7 +4119,7 @@
         <v>0.8888888359069824</v>
       </c>
       <c r="E184" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="F184" t="n">
         <v>0.7222221493721008</v>
@@ -4153,13 +4153,13 @@
         <v>0.7222221493721008</v>
       </c>
       <c r="C186" t="n">
-        <v>0.611111044883728</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="D186" t="n">
-        <v>0.5</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="E186" t="n">
-        <v>0.611111044883728</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="F186" t="n">
         <v>0.9444444179534912</v>
@@ -4170,7 +4170,7 @@
         <v>719</v>
       </c>
       <c r="B187" t="n">
-        <v>0.5</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="C187" t="n">
         <v>0.9444444179534912</v>
@@ -4182,7 +4182,7 @@
         <v>0.8888888359069824</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5</v>
+        <v>0.9999999403953552</v>
       </c>
     </row>
     <row r="188">
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>0.6000000238418579</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
         <v>1</v>
@@ -4259,10 +4259,10 @@
         <v>0.7222221493721008</v>
       </c>
       <c r="E191" t="n">
-        <v>0.555555522441864</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5</v>
+        <v>0.9444444179534912</v>
       </c>
     </row>
     <row r="192">
@@ -4296,7 +4296,7 @@
         <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
         <v>1</v>
@@ -4399,7 +4399,7 @@
         <v>0.7777777314186096</v>
       </c>
       <c r="E198" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="F198" t="n">
         <v>0.7222221493721008</v>
@@ -4416,7 +4416,7 @@
         <v>0.7222221493721008</v>
       </c>
       <c r="D199" t="n">
-        <v>0.555555522441864</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="E199" t="n">
         <v>0.7777777314186096</v>
@@ -4430,19 +4430,19 @@
         <v>733</v>
       </c>
       <c r="B200" t="n">
-        <v>0.611111044883728</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="C200" t="n">
-        <v>0.555555522441864</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="D200" t="n">
-        <v>0.5</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="E200" t="n">
         <v>0.7222221493721008</v>
       </c>
       <c r="F200" t="n">
-        <v>0.555555522441864</v>
+        <v>0.611111044883728</v>
       </c>
     </row>
     <row r="201">
@@ -4496,13 +4496,13 @@
         <v>0.7777777314186096</v>
       </c>
       <c r="D203" t="n">
-        <v>0.555555522441864</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="E203" t="n">
         <v>0.8333332538604736</v>
       </c>
       <c r="F203" t="n">
-        <v>0.5</v>
+        <v>0.9999999403953552</v>
       </c>
     </row>
     <row r="204">
@@ -4510,7 +4510,7 @@
         <v>738</v>
       </c>
       <c r="B204" t="n">
-        <v>0.611111044883728</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="C204" t="n">
         <v>0.8888888359069824</v>
@@ -4519,7 +4519,7 @@
         <v>0.8333332538604736</v>
       </c>
       <c r="E204" t="n">
-        <v>0.611111044883728</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="F204" t="n">
         <v>0.8888888359069824</v>
@@ -4556,10 +4556,10 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="D206" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="E206" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="F206" t="n">
         <v>0.8124999403953552</v>
@@ -4613,7 +4613,7 @@
         <v>0.7777777314186096</v>
       </c>
       <c r="C209" t="n">
-        <v>0.611111044883728</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="D209" t="n">
         <v>0.8888888359069824</v>
@@ -4630,13 +4630,13 @@
         <v>744</v>
       </c>
       <c r="B210" t="n">
-        <v>0.5</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="C210" t="n">
         <v>0.7777777314186096</v>
       </c>
       <c r="D210" t="n">
-        <v>0.611111044883728</v>
+        <v>0.6666666269302368</v>
       </c>
       <c r="E210" t="n">
         <v>0.7222221493721008</v>
@@ -4659,7 +4659,7 @@
         <v>0.8125</v>
       </c>
       <c r="E211" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F211" t="n">
         <v>0.8125</v>
@@ -4733,16 +4733,16 @@
         <v>0.699999988079071</v>
       </c>
       <c r="C215" t="n">
-        <v>0.1000000014901161</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>0.1000000014901161</v>
+        <v>1</v>
       </c>
       <c r="F215" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -4830,7 +4830,7 @@
         <v>758</v>
       </c>
       <c r="B220" t="n">
-        <v>0.5</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="C220" t="n">
         <v>0.9999999403953552</v>
@@ -4839,7 +4839,7 @@
         <v>0.8333332538604736</v>
       </c>
       <c r="E220" t="n">
-        <v>0.5</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="F220" t="n">
         <v>0.9999999403953552</v>
@@ -4859,7 +4859,7 @@
         <v>0.9444444179534912</v>
       </c>
       <c r="E221" t="n">
-        <v>0.555555522441864</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="F221" t="n">
         <v>0.9999999403953552</v>
@@ -4973,13 +4973,13 @@
         <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>0.699999988079071</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="D227" t="n">
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>0.300000011920929</v>
+        <v>1</v>
       </c>
       <c r="F227" t="n">
         <v>1</v>
@@ -5359,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>0.7777777910232544</v>
+        <v>1</v>
       </c>
       <c r="F246" t="n">
         <v>1</v>
@@ -5430,10 +5430,10 @@
         <v>795</v>
       </c>
       <c r="B250" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="C250" t="n">
-        <v>0.6000000238418579</v>
+        <v>1</v>
       </c>
       <c r="D250" t="n">
         <v>1</v>
@@ -5442,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="F250" t="n">
-        <v>0.1000000014901161</v>
+        <v>0.699999988079071</v>
       </c>
     </row>
     <row r="251">
@@ -5542,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="F255" t="n">
-        <v>0.5555555820465088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -5796,10 +5796,10 @@
         <v>1</v>
       </c>
       <c r="D268" t="n">
-        <v>0.300000011920929</v>
+        <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>0.6000000238418579</v>
+        <v>1</v>
       </c>
       <c r="F268" t="n">
         <v>1</v>
@@ -5910,7 +5910,7 @@
         <v>822</v>
       </c>
       <c r="B274" t="n">
-        <v>0.1000000014901161</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -6076,13 +6076,13 @@
         <v>0.8888888359069824</v>
       </c>
       <c r="D282" t="n">
-        <v>0.555555522441864</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="E282" t="n">
-        <v>0.555555522441864</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="F282" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.8333332538604736</v>
       </c>
     </row>
     <row r="283">
@@ -6382,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="F297" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -6639,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="E310" t="n">
-        <v>0.6000000238418579</v>
+        <v>1</v>
       </c>
       <c r="F310" t="n">
         <v>1</v>
@@ -6750,7 +6750,7 @@
         <v>866</v>
       </c>
       <c r="B316" t="n">
-        <v>0.5555555820465088</v>
+        <v>0.8888888955116272</v>
       </c>
       <c r="C316" t="n">
         <v>1</v>
@@ -6762,7 +6762,7 @@
         <v>1</v>
       </c>
       <c r="F316" t="n">
-        <v>0.2222222238779068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -6810,7 +6810,7 @@
         <v>869</v>
       </c>
       <c r="B319" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="F319" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.699999988079071</v>
       </c>
     </row>
     <row r="320">
@@ -6833,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>0.4000000059604645</v>
+        <v>1</v>
       </c>
       <c r="D320" t="n">
         <v>1</v>
@@ -7036,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="D330" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
       <c r="E330" t="n">
         <v>1</v>
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="F336" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -7242,7 +7242,7 @@
         <v>1</v>
       </c>
       <c r="F340" t="n">
-        <v>0.6666666865348816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -7339,7 +7339,7 @@
         <v>0.9444444179534912</v>
       </c>
       <c r="E345" t="n">
-        <v>0.611111044883728</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="F345" t="n">
         <v>0.9444444179534912</v>
@@ -7356,10 +7356,10 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="D346" t="n">
+        <v>0.8888888359069824</v>
+      </c>
+      <c r="E346" t="n">
         <v>0.6666666269302368</v>
-      </c>
-      <c r="E346" t="n">
-        <v>0.5</v>
       </c>
       <c r="F346" t="n">
         <v>0.7222221493721008</v>
@@ -7433,7 +7433,7 @@
         <v>0.9166666269302368</v>
       </c>
       <c r="C350" t="n">
-        <v>0.5</v>
+        <v>0.9166666269302368</v>
       </c>
       <c r="D350" t="n">
         <v>0.9166666269302368</v>
@@ -7476,7 +7476,7 @@
         <v>0.7857142686843872</v>
       </c>
       <c r="D352" t="n">
-        <v>0.6428570747375488</v>
+        <v>0.714285671710968</v>
       </c>
       <c r="E352" t="n">
         <v>0.7857142686843872</v>
@@ -7596,10 +7596,10 @@
         <v>0.8571428060531616</v>
       </c>
       <c r="D358" t="n">
-        <v>0.5</v>
+        <v>0.7857142686843872</v>
       </c>
       <c r="E358" t="n">
-        <v>0.6428570747375488</v>
+        <v>0.7857142686843872</v>
       </c>
       <c r="F358" t="n">
         <v>0.714285671710968</v>
@@ -7616,13 +7616,13 @@
         <v>0.699999988079071</v>
       </c>
       <c r="D359" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="E359" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="F359" t="n">
-        <v>0.550000011920929</v>
+        <v>0.699999988079071</v>
       </c>
     </row>
     <row r="360">
@@ -7639,7 +7639,7 @@
         <v>0.8333333730697632</v>
       </c>
       <c r="E360" t="n">
-        <v>0.6666666865348816</v>
+        <v>0.75</v>
       </c>
       <c r="F360" t="n">
         <v>0.9166666269302368</v>
@@ -7650,7 +7650,7 @@
         <v>913</v>
       </c>
       <c r="B361" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.8124999403953552</v>
       </c>
       <c r="C361" t="n">
         <v>0.7499999403953552</v>
@@ -7662,7 +7662,7 @@
         <v>0.7499999403953552</v>
       </c>
       <c r="F361" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.8124999403953552</v>
       </c>
     </row>
     <row r="362">
@@ -7679,7 +7679,7 @@
         <v>0.75</v>
       </c>
       <c r="E362" t="n">
-        <v>0.6428571343421936</v>
+        <v>0.75</v>
       </c>
       <c r="F362" t="n">
         <v>0.7857142686843872</v>
@@ -7690,7 +7690,7 @@
         <v>915</v>
       </c>
       <c r="B363" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.7499999403953552</v>
       </c>
       <c r="C363" t="n">
         <v>0.9999999403953552</v>
@@ -7730,7 +7730,7 @@
         <v>917</v>
       </c>
       <c r="B365" t="n">
-        <v>0.6666666865348816</v>
+        <v>0.6904761791229248</v>
       </c>
       <c r="C365" t="n">
         <v>0.7857142686843872</v>
@@ -7753,10 +7753,10 @@
         <v>0.6428571343421936</v>
       </c>
       <c r="C366" t="n">
-        <v>0.523809552192688</v>
+        <v>0.7857142686843872</v>
       </c>
       <c r="D366" t="n">
-        <v>0.6428571343421936</v>
+        <v>0.7857142686843872</v>
       </c>
       <c r="E366" t="n">
         <v>0.7142857313156128</v>
@@ -7793,7 +7793,7 @@
         <v>0.8749999403953552</v>
       </c>
       <c r="C368" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.8124999403953552</v>
       </c>
       <c r="D368" t="n">
         <v>0.8124999403953552</v>
@@ -7830,7 +7830,7 @@
         <v>922</v>
       </c>
       <c r="B370" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="C370" t="n">
         <v>0.8333332538604736</v>
@@ -7890,7 +7890,7 @@
         <v>925</v>
       </c>
       <c r="B373" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="C373" t="n">
         <v>0.6875</v>
@@ -7902,7 +7902,7 @@
         <v>0.75</v>
       </c>
       <c r="F373" t="n">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="374">
@@ -8053,13 +8053,13 @@
         <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>0.3333333432674408</v>
+        <v>1</v>
       </c>
       <c r="D381" t="n">
-        <v>0.2222222238779068</v>
+        <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>0.4444444477558136</v>
+        <v>1</v>
       </c>
       <c r="F381" t="n">
         <v>1</v>
@@ -8073,7 +8073,7 @@
         <v>0.7777777910232544</v>
       </c>
       <c r="C382" t="n">
-        <v>0.6666666865348816</v>
+        <v>1</v>
       </c>
       <c r="D382" t="n">
         <v>1</v>
@@ -8122,7 +8122,7 @@
         <v>0.8888888955116272</v>
       </c>
       <c r="F384" t="n">
-        <v>0.6666666865348816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -8190,7 +8190,7 @@
         <v>941</v>
       </c>
       <c r="B388" t="n">
-        <v>0.5</v>
+        <v>0.9285714626312256</v>
       </c>
       <c r="C388" t="n">
         <v>0.7857142686843872</v>
@@ -8216,7 +8216,7 @@
         <v>0.7857142686843872</v>
       </c>
       <c r="D389" t="n">
-        <v>0.5714285969734192</v>
+        <v>0.75</v>
       </c>
       <c r="E389" t="n">
         <v>0.75</v>
@@ -8250,16 +8250,16 @@
         <v>944</v>
       </c>
       <c r="B391" t="n">
-        <v>0.6428571343421936</v>
+        <v>0.6666666865348816</v>
       </c>
       <c r="C391" t="n">
         <v>0.7857142686843872</v>
       </c>
       <c r="D391" t="n">
-        <v>0.523809552192688</v>
+        <v>0.6904761791229248</v>
       </c>
       <c r="E391" t="n">
-        <v>0.6428571343421936</v>
+        <v>0.8333333730697632</v>
       </c>
       <c r="F391" t="n">
         <v>0.6904761791229248</v>
@@ -8273,10 +8273,10 @@
         <v>0.7142857313156128</v>
       </c>
       <c r="C392" t="n">
-        <v>0.6428571343421936</v>
+        <v>0.6666666865348816</v>
       </c>
       <c r="D392" t="n">
-        <v>0.5714285969734192</v>
+        <v>0.761904776096344</v>
       </c>
       <c r="E392" t="n">
         <v>0.761904776096344</v>
@@ -8299,7 +8299,7 @@
         <v>0.8125</v>
       </c>
       <c r="E393" t="n">
-        <v>0.5625</v>
+        <v>0.6875</v>
       </c>
       <c r="F393" t="n">
         <v>0.75</v>
@@ -8310,16 +8310,16 @@
         <v>947</v>
       </c>
       <c r="B394" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="C394" t="n">
         <v>0.6875</v>
       </c>
       <c r="D394" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="E394" t="n">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="F394" t="n">
         <v>1</v>
@@ -8333,7 +8333,7 @@
         <v>0.7857142686843872</v>
       </c>
       <c r="C395" t="n">
-        <v>0.6428571343421936</v>
+        <v>0.7142857313156128</v>
       </c>
       <c r="D395" t="n">
         <v>0.761904776096344</v>
@@ -8359,7 +8359,7 @@
         <v>0.8125</v>
       </c>
       <c r="E396" t="n">
-        <v>0.5625</v>
+        <v>0.8125</v>
       </c>
       <c r="F396" t="n">
         <v>0.875</v>
@@ -8373,7 +8373,7 @@
         <v>0.8749999403953552</v>
       </c>
       <c r="C397" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.6874999403953552</v>
       </c>
       <c r="D397" t="n">
         <v>0.8124999403953552</v>
@@ -8396,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="D398" t="n">
-        <v>0.4444444477558136</v>
+        <v>1</v>
       </c>
       <c r="E398" t="n">
         <v>1</v>
@@ -8416,7 +8416,7 @@
         <v>1</v>
       </c>
       <c r="D399" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
       <c r="E399" t="n">
         <v>1</v>
@@ -8450,7 +8450,7 @@
         <v>954</v>
       </c>
       <c r="B401" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
         <v>1</v>
@@ -8479,7 +8479,7 @@
         <v>1</v>
       </c>
       <c r="E402" t="n">
-        <v>0.300000011920929</v>
+        <v>1</v>
       </c>
       <c r="F402" t="n">
         <v>1</v>
@@ -8510,19 +8510,19 @@
         <v>957</v>
       </c>
       <c r="B404" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.8749999403953552</v>
       </c>
       <c r="C404" t="n">
         <v>0.8124999403953552</v>
       </c>
       <c r="D404" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="E404" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.6874999403953552</v>
       </c>
       <c r="F404" t="n">
-        <v>0.5624999403953552</v>
+        <v>0.6874999403953552</v>
       </c>
     </row>
     <row r="405">
@@ -8616,7 +8616,7 @@
         <v>1</v>
       </c>
       <c r="D409" t="n">
-        <v>0.6666666865348816</v>
+        <v>1</v>
       </c>
       <c r="E409" t="n">
         <v>1</v>
@@ -8662,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="F411" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -8870,7 +8870,7 @@
         <v>979</v>
       </c>
       <c r="B422" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="C422" t="n">
         <v>0.7222221493721008</v>
@@ -8879,10 +8879,10 @@
         <v>0.7222221493721008</v>
       </c>
       <c r="E422" t="n">
-        <v>0.5</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="F422" t="n">
-        <v>0.555555522441864</v>
+        <v>0.9999999403953552</v>
       </c>
     </row>
     <row r="423">
@@ -8899,7 +8899,7 @@
         <v>0.9374999403953552</v>
       </c>
       <c r="E423" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.9374999403953552</v>
       </c>
       <c r="F423" t="n">
         <v>0.9374999403953552</v>
@@ -8913,7 +8913,7 @@
         <v>0.9374999403953552</v>
       </c>
       <c r="C424" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="D424" t="n">
         <v>0.9999999403953552</v>
@@ -8942,7 +8942,7 @@
         <v>1</v>
       </c>
       <c r="F425" t="n">
-        <v>0.800000011920929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -8956,13 +8956,13 @@
         <v>1</v>
       </c>
       <c r="D426" t="n">
-        <v>0.800000011920929</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="E426" t="n">
         <v>1</v>
       </c>
       <c r="F426" t="n">
-        <v>0.300000011920929</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/RightHemis_val_FULL_modality_Only_Part_2.xlsx
+++ b/RightHemis_val_FULL_modality_Only_Part_2.xlsx
@@ -610,10 +610,10 @@
         <v>513</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8571428060531616</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8571428060531616</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="D9" t="n">
         <v>0.928571343421936</v>
@@ -622,7 +622,7 @@
         <v>0.928571343421936</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8571428060531616</v>
+        <v>0.928571343421936</v>
       </c>
     </row>
     <row r="10">
@@ -753,7 +753,7 @@
         <v>0.8571428060531616</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7857142686843872</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="D16" t="n">
         <v>0.9999999403953552</v>
@@ -762,7 +762,7 @@
         <v>0.8571428060531616</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7857142686843872</v>
+        <v>0.928571343421936</v>
       </c>
     </row>
     <row r="17">
@@ -930,7 +930,7 @@
         <v>535</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7499999403953552</v>
+        <v>0.8749999403953552</v>
       </c>
       <c r="C25" t="n">
         <v>0.8124999403953552</v>
@@ -942,7 +942,7 @@
         <v>0.9374999403953552</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7499999403953552</v>
+        <v>0.8124999403953552</v>
       </c>
     </row>
     <row r="26">
@@ -973,16 +973,16 @@
         <v>0.928571343421936</v>
       </c>
       <c r="C27" t="n">
-        <v>0.714285671710968</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="D27" t="n">
-        <v>0.714285671710968</v>
+        <v>0.8571428060531616</v>
       </c>
       <c r="E27" t="n">
         <v>0.8571428060531616</v>
       </c>
       <c r="F27" t="n">
-        <v>0.714285671710968</v>
+        <v>0.7857142686843872</v>
       </c>
     </row>
     <row r="28">
@@ -1090,7 +1090,7 @@
         <v>543</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7777777314186096</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="C33" t="n">
         <v>0.9444444179534912</v>
@@ -1210,19 +1210,19 @@
         <v>552</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6428570747375488</v>
+        <v>0.8571428060531616</v>
       </c>
       <c r="C39" t="n">
         <v>0.7857142686843872</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6428570747375488</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="E39" t="n">
         <v>0.8571428060531616</v>
       </c>
       <c r="F39" t="n">
-        <v>0.714285671710968</v>
+        <v>0.9999999403953552</v>
       </c>
     </row>
     <row r="40">
@@ -1236,13 +1236,13 @@
         <v>0.928571343421936</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7857142686843872</v>
+        <v>0.8571428060531616</v>
       </c>
       <c r="E40" t="n">
         <v>0.9999999403953552</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7857142686843872</v>
+        <v>0.9999999403953552</v>
       </c>
     </row>
     <row r="41">
@@ -1270,19 +1270,19 @@
         <v>555</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.9374999403953552</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.9374999403953552</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.7499999403953552</v>
       </c>
       <c r="E42" t="n">
         <v>0.9374999403953552</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.8749999403953552</v>
       </c>
     </row>
     <row r="43">
@@ -1362,7 +1362,7 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8571428060531616</v>
+        <v>0.9999999403953552</v>
       </c>
     </row>
     <row r="47">
@@ -1539,7 +1539,7 @@
         <v>0.8749999403953552</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7499999403953552</v>
+        <v>0.8749999403953552</v>
       </c>
       <c r="F55" t="n">
         <v>0.8124999403953552</v>
@@ -1950,7 +1950,7 @@
         <v>594</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8124999403953552</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="C76" t="n">
         <v>0.9999999403953552</v>
@@ -1959,7 +1959,7 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8124999403953552</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="F76" t="n">
         <v>0.8749999403953552</v>
@@ -1990,13 +1990,13 @@
         <v>596</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.8749999403953552</v>
       </c>
       <c r="C78" t="n">
         <v>0.8749999403953552</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.7499999403953552</v>
       </c>
       <c r="E78" t="n">
         <v>0.9374999403953552</v>
@@ -2073,16 +2073,16 @@
         <v>0.8888888359069824</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7222221493721008</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="D82" t="n">
         <v>0.9444444179534912</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7222221493721008</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.8888888359069824</v>
       </c>
     </row>
     <row r="83">
@@ -2276,13 +2276,13 @@
         <v>0.8333332538604736</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="E92" t="n">
         <v>0.8888888359069824</v>
       </c>
       <c r="F92" t="n">
-        <v>0.7222221493721008</v>
+        <v>0.8888888359069824</v>
       </c>
     </row>
     <row r="93">
@@ -2313,13 +2313,13 @@
         <v>0.8749999403953552</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.9374999403953552</v>
       </c>
       <c r="D94" t="n">
         <v>0.9374999403953552</v>
       </c>
       <c r="E94" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.7499999403953552</v>
       </c>
       <c r="F94" t="n">
         <v>0.8749999403953552</v>
@@ -2356,13 +2356,13 @@
         <v>0.8333332538604736</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="E96" t="n">
         <v>0.8333332538604736</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.9999999403953552</v>
       </c>
     </row>
     <row r="97">
@@ -2490,16 +2490,16 @@
         <v>623</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7499999403953552</v>
+        <v>0.8124999403953552</v>
       </c>
       <c r="C103" t="n">
         <v>0.9374999403953552</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.8749999403953552</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7499999403953552</v>
+        <v>0.9374999403953552</v>
       </c>
       <c r="F103" t="n">
         <v>0.8749999403953552</v>
@@ -2519,10 +2519,10 @@
         <v>0.8124999403953552</v>
       </c>
       <c r="E104" t="n">
-        <v>0.7499999403953552</v>
+        <v>0.8749999403953552</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.8124999403953552</v>
       </c>
     </row>
     <row r="105">
@@ -2582,7 +2582,7 @@
         <v>0.8124999403953552</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.8124999403953552</v>
       </c>
     </row>
     <row r="108">
@@ -2950,13 +2950,13 @@
         <v>648</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6785714626312256</v>
+        <v>0.9285714626312256</v>
       </c>
       <c r="C126" t="n">
         <v>0.7857142686843872</v>
       </c>
       <c r="D126" t="n">
-        <v>0.75</v>
+        <v>0.7857142686843872</v>
       </c>
       <c r="E126" t="n">
         <v>0.7857142686843872</v>
@@ -2976,13 +2976,13 @@
         <v>0.9374999403953552</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.9374999403953552</v>
       </c>
       <c r="E127" t="n">
         <v>0.8749999403953552</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.9374999403953552</v>
       </c>
     </row>
     <row r="128">
@@ -3030,7 +3030,7 @@
         <v>652</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7222221493721008</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="C130" t="n">
         <v>0.8888888359069824</v>
@@ -3039,7 +3039,7 @@
         <v>0.7777777314186096</v>
       </c>
       <c r="E130" t="n">
-        <v>0.7222221493721008</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="F130" t="n">
         <v>0.9444444179534912</v>
@@ -3053,7 +3053,7 @@
         <v>0.9444444179534912</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8333332538604736</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="D131" t="n">
         <v>0.9999999403953552</v>
@@ -3390,13 +3390,13 @@
         <v>673</v>
       </c>
       <c r="B148" t="n">
-        <v>0.7499999403953552</v>
+        <v>0.9374999403953552</v>
       </c>
       <c r="C148" t="n">
         <v>0.8749999403953552</v>
       </c>
       <c r="D148" t="n">
-        <v>0.7499999403953552</v>
+        <v>0.8124999403953552</v>
       </c>
       <c r="E148" t="n">
         <v>0.9999999403953552</v>
@@ -4070,7 +4070,7 @@
         <v>714</v>
       </c>
       <c r="B182" t="n">
-        <v>0.7777777314186096</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="C182" t="n">
         <v>0.8333332538604736</v>
@@ -4079,10 +4079,10 @@
         <v>0.8888888359069824</v>
       </c>
       <c r="E182" t="n">
-        <v>0.7777777314186096</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="F182" t="n">
-        <v>0.7222221493721008</v>
+        <v>0.8333332538604736</v>
       </c>
     </row>
     <row r="183">
@@ -4122,7 +4122,7 @@
         <v>0.7777777314186096</v>
       </c>
       <c r="F184" t="n">
-        <v>0.7222221493721008</v>
+        <v>0.8888888359069824</v>
       </c>
     </row>
     <row r="185">
@@ -4439,10 +4439,10 @@
         <v>0.8333332538604736</v>
       </c>
       <c r="E200" t="n">
-        <v>0.7222221493721008</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="F200" t="n">
-        <v>0.611111044883728</v>
+        <v>0.8333332538604736</v>
       </c>
     </row>
     <row r="201">
@@ -4510,7 +4510,7 @@
         <v>738</v>
       </c>
       <c r="B204" t="n">
-        <v>0.7777777314186096</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="C204" t="n">
         <v>0.8888888359069824</v>
@@ -4636,7 +4636,7 @@
         <v>0.7777777314186096</v>
       </c>
       <c r="D210" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="E210" t="n">
         <v>0.7222221493721008</v>
@@ -4659,7 +4659,7 @@
         <v>0.8125</v>
       </c>
       <c r="E211" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="F211" t="n">
         <v>0.8125</v>
@@ -4670,7 +4670,7 @@
         <v>746</v>
       </c>
       <c r="B212" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.8749999403953552</v>
       </c>
       <c r="C212" t="n">
         <v>0.7499999403953552</v>
@@ -4750,13 +4750,13 @@
         <v>750</v>
       </c>
       <c r="B216" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="C216" t="n">
         <v>0.7777777314186096</v>
       </c>
       <c r="D216" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="E216" t="n">
         <v>0.8888888359069824</v>
@@ -7470,13 +7470,13 @@
         <v>904</v>
       </c>
       <c r="B352" t="n">
-        <v>0.714285671710968</v>
+        <v>0.8571428060531616</v>
       </c>
       <c r="C352" t="n">
         <v>0.7857142686843872</v>
       </c>
       <c r="D352" t="n">
-        <v>0.714285671710968</v>
+        <v>0.7857142686843872</v>
       </c>
       <c r="E352" t="n">
         <v>0.7857142686843872</v>
@@ -7602,7 +7602,7 @@
         <v>0.7857142686843872</v>
       </c>
       <c r="F358" t="n">
-        <v>0.714285671710968</v>
+        <v>0.928571343421936</v>
       </c>
     </row>
     <row r="359">
@@ -7610,19 +7610,19 @@
         <v>911</v>
       </c>
       <c r="B359" t="n">
-        <v>0.800000011920929</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="C359" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
       <c r="D359" t="n">
-        <v>0.699999988079071</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="E359" t="n">
         <v>0.8999999761581421</v>
       </c>
       <c r="F359" t="n">
-        <v>0.699999988079071</v>
+        <v>0.8999999761581421</v>
       </c>
     </row>
     <row r="360">
@@ -7770,7 +7770,7 @@
         <v>919</v>
       </c>
       <c r="B367" t="n">
-        <v>0.7142857313156128</v>
+        <v>0.761904776096344</v>
       </c>
       <c r="C367" t="n">
         <v>0.8333333730697632</v>
@@ -7779,10 +7779,10 @@
         <v>0.8333333730697632</v>
       </c>
       <c r="E367" t="n">
-        <v>0.7142857313156128</v>
+        <v>0.7857142686843872</v>
       </c>
       <c r="F367" t="n">
-        <v>0.7142857313156128</v>
+        <v>0.7857142686843872</v>
       </c>
     </row>
     <row r="368">
@@ -7799,10 +7799,10 @@
         <v>0.8124999403953552</v>
       </c>
       <c r="E368" t="n">
-        <v>0.7499999403953552</v>
+        <v>0.8124999403953552</v>
       </c>
       <c r="F368" t="n">
-        <v>0.6874999403953552</v>
+        <v>0.9999999403953552</v>
       </c>
     </row>
     <row r="369">
@@ -7853,16 +7853,16 @@
         <v>0.8125</v>
       </c>
       <c r="C371" t="n">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="D371" t="n">
         <v>0.8125</v>
       </c>
       <c r="E371" t="n">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="F371" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="372">
@@ -8333,13 +8333,13 @@
         <v>0.7857142686843872</v>
       </c>
       <c r="C395" t="n">
-        <v>0.7142857313156128</v>
+        <v>0.8571428656578064</v>
       </c>
       <c r="D395" t="n">
-        <v>0.761904776096344</v>
+        <v>0.8571428656578064</v>
       </c>
       <c r="E395" t="n">
-        <v>0.7142857313156128</v>
+        <v>0.9285714626312256</v>
       </c>
       <c r="F395" t="n">
         <v>0.7857142686843872</v>
